--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="968">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,766 +55,766 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>older</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>dedicated</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>catching</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>losses</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>older</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>dedicated</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>deliveries</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>says</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>catching</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>best</t>
@@ -3283,10 +3283,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3344,7 +3344,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0318152730760697</v>
+        <v>0.03233502959483246</v>
       </c>
       <c r="C3">
         <v>137</v>
@@ -3365,7 +3365,7 @@
         <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>0.01083782369637068</v>
@@ -3394,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01941156094050847</v>
+        <v>0.01972868175584979</v>
       </c>
       <c r="C4">
         <v>51</v>
@@ -3415,7 +3415,7 @@
         <v>465</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>0.008376451052606539</v>
@@ -3444,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01120726993439339</v>
+        <v>0.01139035972249633</v>
       </c>
       <c r="C5">
         <v>17</v>
@@ -3465,7 +3465,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>265</v>
       </c>
       <c r="K5">
         <v>0.008165541513141887</v>
@@ -3474,19 +3474,19 @@
         <v>172</v>
       </c>
       <c r="M5">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N5">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3494,7 +3494,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01120726993439339</v>
+        <v>0.01139035972249633</v>
       </c>
       <c r="C6">
         <v>17</v>
@@ -3515,7 +3515,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="K6">
         <v>0.007701343296840181</v>
@@ -3524,19 +3524,19 @@
         <v>153</v>
       </c>
       <c r="M6">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N6">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3544,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01087264887395601</v>
+        <v>0.01105027205873728</v>
       </c>
       <c r="C7">
         <v>16</v>
@@ -3565,7 +3565,7 @@
         <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K7">
         <v>0.007701343296840181</v>
@@ -3594,28 +3594,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009415990131274178</v>
+        <v>0.00873600711753194</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>0.007340542673762014</v>
@@ -3644,28 +3644,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008595583660241497</v>
+        <v>0.00873600711753194</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1952</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9">
         <v>0.007153321314612478</v>
@@ -3694,28 +3694,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008595583660241497</v>
+        <v>0.008287704044052963</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1952</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K10">
         <v>0.006848783737101191</v>
@@ -3744,13 +3744,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.00815448665546701</v>
+        <v>0.007813722306689365</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3762,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K11">
         <v>0.006349469439973798</v>
@@ -3794,28 +3794,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007688123748234577</v>
+        <v>0.007309067946756145</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K12">
         <v>0.006226167033728356</v>
@@ -3844,28 +3844,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007191581253253517</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13">
         <v>0.006132063376542122</v>
@@ -3894,7 +3894,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K14">
         <v>0.006068516963417953</v>
@@ -3944,7 +3944,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -3962,10 +3962,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K15">
         <v>0.006036492903662905</v>
@@ -3994,7 +3994,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -4012,10 +4012,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K16">
         <v>0.005840662395658515</v>
@@ -4044,7 +4044,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -4062,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K17">
         <v>0.005638034042478488</v>
@@ -4094,7 +4094,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4112,10 +4112,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>0.004980933626982684</v>
@@ -4144,28 +4144,28 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006658110473409581</v>
+        <v>0.006766882015710131</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2798</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K19">
         <v>0.004941866877718179</v>
@@ -4194,28 +4194,28 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006658110473409581</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>309</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2798</v>
+        <v>46</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20">
         <v>0.004782409643664227</v>
@@ -4244,28 +4244,28 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006658110473409581</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>0.004700653027098988</v>
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4312,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>0.00465923677460762</v>
@@ -4344,7 +4344,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>267</v>
@@ -4394,7 +4394,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4412,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K24">
         <v>0.004489752897942223</v>
@@ -4444,7 +4444,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K25">
         <v>0.004358316923609849</v>
@@ -4494,7 +4494,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4512,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>0.004313615055531168</v>
@@ -4544,25 +4544,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>14</v>
+        <v>789</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>268</v>
@@ -4594,7 +4594,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006077995494413047</v>
+        <v>0.006177289873300779</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>269</v>
@@ -4644,28 +4644,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006077995494413047</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>789</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K29">
         <v>0.003986692103997142</v>
@@ -4694,13 +4694,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006077995494413047</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>270</v>
@@ -4744,7 +4744,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4762,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K31">
         <v>0.003787229554014085</v>
@@ -4794,7 +4794,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -4812,10 +4812,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K32">
         <v>0.003787229554014085</v>
@@ -4844,7 +4844,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4862,10 +4862,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K33">
         <v>0.003787229554014085</v>
@@ -4894,7 +4894,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4912,10 +4912,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K34">
         <v>0.003522051944279562</v>
@@ -4944,7 +4944,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>271</v>
@@ -4994,7 +4994,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5012,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K36">
         <v>0.003522051944279562</v>
@@ -5044,28 +5044,28 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>1101</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K37">
         <v>0.003466583092741984</v>
@@ -5094,28 +5094,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K38">
         <v>0.003352893559337496</v>
@@ -5144,28 +5144,28 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="E39">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F39">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1101</v>
+        <v>3058</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K39">
         <v>0.003294577918478786</v>
@@ -5194,28 +5194,28 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E40">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F40">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>38</v>
+        <v>598</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K40">
         <v>0.003235211291648376</v>
@@ -5244,28 +5244,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="E41">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F41">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>3058</v>
+        <v>804</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K41">
         <v>0.003174734719986899</v>
@@ -5294,28 +5294,28 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E42">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F42">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>598</v>
+        <v>33</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K42">
         <v>0.003174734719986899</v>
@@ -5344,28 +5344,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005436324436978007</v>
+        <v>0.005525136029368641</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>804</v>
+        <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K43">
         <v>0.003174734719986899</v>
@@ -5394,28 +5394,28 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005436324436978007</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K44">
         <v>0.003113083516864178</v>
@@ -5444,13 +5444,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005436324436978007</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>272</v>
@@ -5494,7 +5494,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -5512,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>273</v>
@@ -5544,7 +5544,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -5562,7 +5562,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>274</v>
@@ -5594,7 +5594,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>275</v>
@@ -5644,7 +5644,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>276</v>
@@ -5694,7 +5694,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>146</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>277</v>
@@ -5744,7 +5744,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5762,10 +5762,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K51">
         <v>0.002853188172149886</v>
@@ -5794,7 +5794,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5812,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K52">
         <v>0.00271392329056263</v>
@@ -5844,7 +5844,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -5862,10 +5862,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K53">
         <v>0.002641538958209671</v>
@@ -5894,25 +5894,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>23</v>
+        <v>327</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>278</v>
@@ -5944,28 +5944,28 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K55">
         <v>0.00256711443228006</v>
@@ -5994,13 +5994,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E56">
         <v>0.97</v>
@@ -6012,10 +6012,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>327</v>
+        <v>15</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K56">
         <v>0.00256711443228006</v>
@@ -6044,28 +6044,28 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="E57">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F57">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>36</v>
+        <v>816</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K57">
         <v>0.002490466813491342</v>
@@ -6094,25 +6094,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
       <c r="D58">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F58">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>15</v>
+        <v>293</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>279</v>
@@ -6144,28 +6144,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="F59">
-        <v>0.04000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>816</v>
+        <v>21</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K59">
         <v>0.002490466813491342</v>
@@ -6194,28 +6194,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="E60">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="F60">
-        <v>0.08999999999999997</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>293</v>
+        <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K60">
         <v>0.002490466813491342</v>
@@ -6244,25 +6244,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E61">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="F61">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>280</v>
@@ -6294,25 +6294,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F62">
-        <v>0.03000000000000003</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>20</v>
+        <v>952</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>281</v>
@@ -6344,28 +6344,28 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>0.25</v>
+        <v>0.84</v>
       </c>
       <c r="F63">
-        <v>0.75</v>
+        <v>0.16</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>26</v>
+        <v>526</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K63">
         <v>0.002411384123233556</v>
@@ -6394,25 +6394,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="F64">
-        <v>0.1899999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>952</v>
+        <v>102</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>282</v>
@@ -6444,28 +6444,28 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>526</v>
+        <v>4</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K65">
         <v>0.00232961838730381</v>
@@ -6494,25 +6494,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004707995065637089</v>
+        <v>0.004784908160797927</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>283</v>
@@ -6544,13 +6544,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004707995065637089</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K67">
         <v>0.00232961838730381</v>
@@ -6594,13 +6594,13 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.004707995065637089</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>284</v>
@@ -6644,7 +6644,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>285</v>
@@ -6694,7 +6694,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>286</v>
@@ -6744,7 +6744,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6762,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K71">
         <v>0.00232961838730381</v>
@@ -6794,7 +6794,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>287</v>
@@ -6844,7 +6844,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6862,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K73">
         <v>0.002244876448971111</v>
@@ -6894,7 +6894,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>288</v>
@@ -6944,7 +6944,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6962,10 +6962,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K75">
         <v>0.002244876448971111</v>
@@ -6994,7 +6994,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>289</v>
@@ -7044,7 +7044,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7062,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K77">
         <v>0.002244876448971111</v>
@@ -7094,7 +7094,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7112,10 +7112,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K78">
         <v>0.002244876448971111</v>
@@ -7144,7 +7144,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>290</v>
@@ -7194,7 +7194,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>291</v>
@@ -7244,7 +7244,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>292</v>
@@ -7294,7 +7294,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K82">
         <v>0.002156807527765584</v>
@@ -7344,25 +7344,25 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>293</v>
@@ -7394,25 +7394,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>294</v>
@@ -7444,25 +7444,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E85">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F85">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>295</v>
@@ -7494,25 +7494,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="E86">
-        <v>0.67</v>
+        <v>0.96</v>
       </c>
       <c r="F86">
-        <v>0.33</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>52</v>
+        <v>365</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>296</v>
@@ -7544,25 +7544,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="F87">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>297</v>
@@ -7594,25 +7594,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F88">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>365</v>
+        <v>131</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>298</v>
@@ -7644,25 +7644,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E89">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="F89">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>299</v>
@@ -7694,28 +7694,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F90">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K90">
         <v>0.002064985993295701</v>
@@ -7744,25 +7744,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F91">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>300</v>
@@ -7794,25 +7794,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E92">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="F92">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>301</v>
@@ -7844,25 +7844,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E93">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="F93">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>302</v>
@@ -7894,7 +7894,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -7912,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>303</v>
@@ -7944,28 +7944,28 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E95">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F95">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K95">
         <v>0.002064985993295701</v>
@@ -7994,25 +7994,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="F96">
-        <v>0.29</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>304</v>
@@ -8044,25 +8044,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>305</v>
@@ -8094,25 +8094,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F98">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>306</v>
@@ -8144,28 +8144,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K99">
         <v>0.002064985993295701</v>
@@ -8194,25 +8194,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>307</v>
@@ -8244,28 +8244,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="E101">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F101">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K101">
         <v>0.001968886891923601</v>
@@ -8294,28 +8294,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K102">
         <v>0.001968886891923601</v>
@@ -8344,25 +8344,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="E103">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F103">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>308</v>
@@ -8394,25 +8394,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>309</v>
@@ -8444,28 +8444,28 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K105">
         <v>0.001968886891923601</v>
@@ -8494,7 +8494,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8512,10 +8512,10 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K106">
         <v>0.001968886891923601</v>
@@ -8544,7 +8544,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003844061874117289</v>
+        <v>0.003906861153344683</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -8562,10 +8562,10 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K107">
         <v>0.001867850110118507</v>
@@ -8594,13 +8594,13 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003844061874117289</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -8612,10 +8612,10 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K108">
         <v>0.001867850110118507</v>
@@ -8644,13 +8644,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003844061874117289</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>310</v>
@@ -8694,7 +8694,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>311</v>
@@ -8744,7 +8744,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8762,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>312</v>
@@ -8794,7 +8794,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8812,10 +8812,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K112">
         <v>0.001867850110118507</v>
@@ -8844,7 +8844,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8862,10 +8862,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K113">
         <v>0.001867850110118507</v>
@@ -8894,7 +8894,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>313</v>
@@ -8944,7 +8944,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>314</v>
@@ -8994,7 +8994,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>315</v>
@@ -9044,7 +9044,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9094,7 +9094,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9112,7 +9112,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>317</v>
@@ -9144,7 +9144,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>318</v>
@@ -9194,7 +9194,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9212,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>319</v>
@@ -9244,7 +9244,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9262,10 +9262,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K121">
         <v>0.001761025972139781</v>
@@ -9294,7 +9294,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9312,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>320</v>
@@ -9344,7 +9344,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>321</v>
@@ -9394,7 +9394,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>322</v>
@@ -9444,7 +9444,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9462,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>323</v>
@@ -9494,7 +9494,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>324</v>
@@ -9544,7 +9544,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9562,10 +9562,10 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K127">
         <v>0.001647288959239393</v>
@@ -9594,28 +9594,28 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K128">
         <v>0.001647288959239393</v>
@@ -9644,28 +9644,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K129">
         <v>0.001647288959239393</v>
@@ -9694,25 +9694,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E130">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F130">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>325</v>
@@ -9744,25 +9744,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="E131">
-        <v>0.67</v>
+        <v>0.99</v>
       </c>
       <c r="F131">
-        <v>0.33</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>326</v>
@@ -9794,25 +9794,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>327</v>
@@ -9844,25 +9844,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E133">
-        <v>0.99</v>
+        <v>0.5</v>
       </c>
       <c r="F133">
-        <v>0.01000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>328</v>
@@ -9894,25 +9894,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>329</v>
@@ -9944,25 +9944,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>330</v>
@@ -9994,28 +9994,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E136">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K136">
         <v>0.001647288959239393</v>
@@ -10044,7 +10044,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>331</v>
@@ -10094,7 +10094,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10144,25 +10144,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>333</v>
@@ -10194,28 +10194,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K140">
         <v>0.001525093228597237</v>
@@ -10244,25 +10244,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E141">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>334</v>
@@ -10294,25 +10294,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>335</v>
@@ -10344,19 +10344,19 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F143">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
@@ -10394,7 +10394,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10412,10 +10412,10 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K144">
         <v>0.001525093228597237</v>
@@ -10444,25 +10444,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>337</v>
@@ -10494,25 +10494,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>338</v>
@@ -10544,28 +10544,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K147">
         <v>0.001525093228597237</v>
@@ -10594,25 +10594,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>339</v>
@@ -10644,25 +10644,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E149">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="F149">
-        <v>0.08999999999999997</v>
+        <v>0.14</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>340</v>
@@ -10694,28 +10694,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K150">
         <v>0.001525093228597237</v>
@@ -10744,25 +10744,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E151">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F151">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>341</v>
@@ -10794,25 +10794,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E152">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F152">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>342</v>
@@ -10844,25 +10844,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E153">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F153">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>343</v>
@@ -10894,28 +10894,28 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F154">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K154">
         <v>0.001525093228597237</v>
@@ -10944,25 +10944,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>344</v>
@@ -10994,25 +10994,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E156">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F156">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>345</v>
@@ -11044,25 +11044,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>346</v>
@@ -11094,25 +11094,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>347</v>
@@ -11144,25 +11144,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F159">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>348</v>
@@ -11194,7 +11194,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11212,7 +11212,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>349</v>
@@ -11244,25 +11244,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>350</v>
@@ -11294,25 +11294,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>351</v>
@@ -11344,25 +11344,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>352</v>
@@ -11394,25 +11394,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E164">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F164">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>353</v>
@@ -11444,25 +11444,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>354</v>
@@ -11494,25 +11494,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>355</v>
@@ -11544,28 +11544,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K167">
         <v>0.001392213272668483</v>
@@ -11594,25 +11594,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>356</v>
@@ -11644,25 +11644,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>357</v>
@@ -11694,25 +11694,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E170">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F170">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>358</v>
@@ -11744,25 +11744,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>359</v>
@@ -11794,25 +11794,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E172">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F172">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>360</v>
@@ -11844,25 +11844,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>361</v>
@@ -11894,25 +11894,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F174">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>362</v>
@@ -11944,7 +11944,7 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -11962,7 +11962,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>363</v>
@@ -11994,25 +11994,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E176">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F176">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>364</v>
@@ -12044,28 +12044,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K177">
         <v>0.001392213272668483</v>
@@ -12094,25 +12094,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>365</v>
@@ -12144,28 +12144,28 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K179">
         <v>0.001392213272668483</v>
@@ -12194,7 +12194,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>366</v>
@@ -12244,25 +12244,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E181">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F181">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>367</v>
@@ -12294,28 +12294,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K182">
         <v>0.001392213272668483</v>
@@ -12344,25 +12344,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F183">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>368</v>
@@ -12394,25 +12394,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E184">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F184">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>369</v>
@@ -12444,28 +12444,28 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E185">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F185">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K185">
         <v>0.001392213272668483</v>
@@ -12494,28 +12494,28 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>311</v>
+        <v>26</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K186">
         <v>0.001392213272668483</v>
@@ -12544,28 +12544,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F187">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K187">
         <v>0.001392213272668483</v>
@@ -12594,25 +12594,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>370</v>
@@ -12644,25 +12644,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="E189">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="F189">
-        <v>0.17</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>371</v>
@@ -12694,28 +12694,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K190">
         <v>0.001392213272668483</v>
@@ -12744,25 +12744,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="E191">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="F191">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>372</v>
@@ -12794,25 +12794,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E192">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F192">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>373</v>
@@ -12844,25 +12844,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F193">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>374</v>
@@ -12894,25 +12894,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E194">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F194">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>375</v>
@@ -12944,25 +12944,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F195">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>376</v>
@@ -12994,28 +12994,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E196">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F196">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K196">
         <v>0.001392213272668483</v>
@@ -13044,25 +13044,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E197">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F197">
-        <v>0.09999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>377</v>
@@ -13094,7 +13094,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -13112,7 +13112,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>378</v>
@@ -13144,7 +13144,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13162,7 +13162,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>379</v>
@@ -13194,25 +13194,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E200">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F200">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>380</v>
@@ -13244,28 +13244,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K201">
         <v>0.001245233406745671</v>
@@ -13294,25 +13294,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E202">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H202">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>381</v>
@@ -13344,25 +13344,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>382</v>
@@ -13394,7 +13394,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13412,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>383</v>
@@ -13444,28 +13444,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E205">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K205">
         <v>0.001245233406745671</v>
@@ -13494,7 +13494,7 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -13512,10 +13512,10 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K206">
         <v>0.001245233406745671</v>
@@ -13544,25 +13544,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>384</v>
@@ -13594,25 +13594,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>385</v>
@@ -13644,25 +13644,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E209">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F209">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>386</v>
@@ -13694,25 +13694,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E210">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F210">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>387</v>
@@ -13744,25 +13744,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>388</v>
@@ -13794,28 +13794,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E212">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K212">
         <v>0.001245233406745671</v>
@@ -13844,7 +13844,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -13862,7 +13862,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>389</v>
@@ -13894,28 +13894,28 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K214">
         <v>0.001245233406745671</v>
@@ -13944,25 +13944,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>390</v>
@@ -13994,25 +13994,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>391</v>
@@ -14044,25 +14044,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E217">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F217">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>392</v>
@@ -14094,28 +14094,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K218">
         <v>0.001245233406745671</v>
@@ -14144,25 +14144,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>393</v>
@@ -14194,25 +14194,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E220">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>394</v>
@@ -14244,25 +14244,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>395</v>
@@ -14294,25 +14294,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>396</v>
@@ -14344,25 +14344,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E223">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F223">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>397</v>
@@ -14394,25 +14394,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F224">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>398</v>
@@ -14444,25 +14444,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E225">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F225">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>215</v>
+        <v>4</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>399</v>
@@ -14494,25 +14494,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E226">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F226">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>400</v>
@@ -14544,25 +14544,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E227">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H227">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>401</v>
@@ -14594,25 +14594,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E228">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>402</v>
@@ -14644,28 +14644,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H229">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K229">
         <v>0.001245233406745671</v>
@@ -14694,7 +14694,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14712,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>403</v>
@@ -14744,25 +14744,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E231">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F231">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>404</v>
@@ -14794,25 +14794,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>405</v>
@@ -14844,25 +14844,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>406</v>
@@ -14894,7 +14894,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14912,10 +14912,10 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K234">
         <v>0.001245233406745671</v>
@@ -14944,25 +14944,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E235">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F235">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>407</v>
@@ -14994,7 +14994,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15012,7 +15012,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>408</v>
@@ -15044,25 +15044,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E237">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="F237">
-        <v>0.05000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>409</v>
@@ -15094,25 +15094,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E238">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H238">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>410</v>
@@ -15144,25 +15144,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E239">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>411</v>
@@ -15194,25 +15194,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>412</v>
@@ -15244,25 +15244,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>413</v>
@@ -15294,25 +15294,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F242">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>414</v>
@@ -15344,25 +15344,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F243">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>415</v>
@@ -15394,25 +15394,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>228</v>
+        <v>9</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>416</v>
@@ -15444,25 +15444,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>48</v>
+        <v>372</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>417</v>
@@ -15494,25 +15494,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>418</v>
@@ -15544,28 +15544,28 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K247">
         <v>0.001245233406745671</v>
@@ -15594,28 +15594,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E248">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F248">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K248">
         <v>0.001245233406745671</v>
@@ -15644,25 +15644,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E249">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F249">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>419</v>
@@ -15694,25 +15694,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E250">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H250">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>420</v>
@@ -15744,25 +15744,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>421</v>
@@ -15794,25 +15794,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H252">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>422</v>
@@ -15844,7 +15844,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>423</v>
@@ -15894,25 +15894,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E254">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H254">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>424</v>
@@ -15944,7 +15944,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -15962,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>425</v>
@@ -15994,7 +15994,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16012,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>426</v>
@@ -16044,7 +16044,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>427</v>
@@ -16094,28 +16094,28 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.002718162218489003</v>
+        <v>0.002762568014684321</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258">
-        <v>8</v>
+        <v>459</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K258">
         <v>0.001078403763882792</v>
@@ -16140,30 +16140,6 @@
       </c>
     </row>
     <row r="259" spans="1:17">
-      <c r="A259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B259">
-        <v>0.002718162218489003</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259">
-        <v>1</v>
-      </c>
-      <c r="G259" t="b">
-        <v>0</v>
-      </c>
-      <c r="H259">
-        <v>12</v>
-      </c>
       <c r="J259" s="1" t="s">
         <v>428</v>
       </c>
@@ -16190,30 +16166,6 @@
       </c>
     </row>
     <row r="260" spans="1:17">
-      <c r="A260" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B260">
-        <v>0.002718162218489003</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-      <c r="D260">
-        <v>5</v>
-      </c>
-      <c r="E260">
-        <v>0.8</v>
-      </c>
-      <c r="F260">
-        <v>0.2</v>
-      </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260">
-        <v>459</v>
-      </c>
       <c r="J260" s="1" t="s">
         <v>429</v>
       </c>
@@ -16345,7 +16297,7 @@
     </row>
     <row r="265" spans="1:17">
       <c r="J265" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K265">
         <v>0.001078403763882792</v>
@@ -16527,7 +16479,7 @@
     </row>
     <row r="272" spans="1:17">
       <c r="J272" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K272">
         <v>0.001078403763882792</v>
@@ -16579,7 +16531,7 @@
     </row>
     <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K274">
         <v>0.001078403763882792</v>
@@ -16683,7 +16635,7 @@
     </row>
     <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K278">
         <v>0.001078403763882792</v>
@@ -16943,7 +16895,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K288">
         <v>0.001078403763882792</v>
@@ -16969,7 +16921,7 @@
     </row>
     <row r="289" spans="10:17">
       <c r="J289" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K289">
         <v>0.001078403763882792</v>
@@ -17385,7 +17337,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K305">
         <v>0.001078403763882792</v>
@@ -17463,7 +17415,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K308">
         <v>0.001078403763882792</v>
@@ -17489,7 +17441,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K309">
         <v>0.001078403763882792</v>
@@ -17645,7 +17597,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K315">
         <v>0.001078403763882792</v>
@@ -17801,7 +17753,7 @@
     </row>
     <row r="321" spans="10:17">
       <c r="J321" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K321">
         <v>0.001078403763882792</v>
@@ -17853,7 +17805,7 @@
     </row>
     <row r="323" spans="10:17">
       <c r="J323" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K323">
         <v>0.001078403763882792</v>
@@ -18217,7 +18169,7 @@
     </row>
     <row r="337" spans="10:17">
       <c r="J337" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K337">
         <v>0.0008805129860698905</v>
@@ -18659,7 +18611,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K354">
         <v>0.0008805129860698905</v>
@@ -18685,7 +18637,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K355">
         <v>0.0008805129860698905</v>
@@ -18971,7 +18923,7 @@
     </row>
     <row r="366" spans="10:17">
       <c r="J366" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K366">
         <v>0.0008805129860698905</v>
@@ -18997,7 +18949,7 @@
     </row>
     <row r="367" spans="10:17">
       <c r="J367" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K367">
         <v>0.0008805129860698905</v>
@@ -19257,7 +19209,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K377">
         <v>0.0008805129860698905</v>
@@ -19855,7 +19807,7 @@
     </row>
     <row r="400" spans="10:17">
       <c r="J400" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K400">
         <v>0.0008805129860698905</v>
@@ -20089,7 +20041,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K409">
         <v>0.0008805129860698905</v>
@@ -20635,7 +20587,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K430">
         <v>0.0008805129860698905</v>
@@ -20999,7 +20951,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K444">
         <v>0.0008805129860698905</v>
@@ -21675,7 +21627,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K470">
         <v>0.0006226167033728356</v>
@@ -21779,7 +21731,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K474">
         <v>0.0006226167033728356</v>
@@ -22325,7 +22277,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K495">
         <v>0.0006226167033728356</v>
@@ -23053,7 +23005,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K523">
         <v>0.0006226167033728356</v>
@@ -23235,7 +23187,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K530">
         <v>0.0006226167033728356</v>
@@ -24145,7 +24097,7 @@
     </row>
     <row r="565" spans="10:17">
       <c r="J565" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K565">
         <v>0.0006226167033728356</v>
@@ -24405,7 +24357,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K575">
         <v>0.0006226167033728356</v>
@@ -25783,7 +25735,7 @@
     </row>
     <row r="628" spans="10:17">
       <c r="J628" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K628">
         <v>0.0006226167033728356</v>
@@ -26069,7 +26021,7 @@
     </row>
     <row r="639" spans="10:17">
       <c r="J639" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K639">
         <v>0.0006226167033728356</v>
@@ -27161,7 +27113,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K681">
         <v>0.0006226167033728356</v>
@@ -27213,7 +27165,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K683">
         <v>0.0006226167033728356</v>
@@ -27343,7 +27295,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K688">
         <v>0.0006226167033728356</v>
@@ -27915,7 +27867,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K710">
         <v>0.0006226167033728356</v>
@@ -28071,7 +28023,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K716">
         <v>0.0006226167033728356</v>
@@ -28201,7 +28153,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K721">
         <v>0.0006226167033728356</v>
@@ -28799,7 +28751,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K744">
         <v>0.0006226167033728356</v>
@@ -29007,7 +28959,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K752">
         <v>0.0006226167033728356</v>
@@ -29267,7 +29219,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K762">
         <v>0.0006226167033728356</v>
